--- a/formats/excel/Formats RUM ANO 20.xlsx
+++ b/formats/excel/Formats RUM ANO 20.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC7588-A277-984C-873D-25B0D9D91BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12150" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -779,14 +784,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -799,358 +798,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1158,241 +815,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1401,61 +826,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1713,27 +1094,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="62.24" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" customWidth="1"/>
     <col min="5" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1828,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1948,7 +1329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1972,7 +1353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1996,7 +1377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2020,7 +1401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2044,7 +1425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2068,7 +1449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2092,7 +1473,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2116,7 +1497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2140,7 +1521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2164,7 +1545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2188,7 +1569,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2212,7 +1593,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2236,7 +1617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +1641,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2284,7 +1665,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2308,7 +1689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -2332,7 +1713,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2356,7 +1737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2380,7 +1761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2404,7 +1785,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2428,7 +1809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2452,7 +1833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2476,7 +1857,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +1881,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2524,7 +1905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2548,7 +1929,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2572,7 +1953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2596,7 +1977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2620,7 +2001,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2644,7 +2025,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2668,7 +2049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2692,7 +2073,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2716,7 +2097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2740,7 +2121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2764,7 +2145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2788,7 +2169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2812,7 +2193,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2836,7 +2217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2860,7 +2241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2884,7 +2265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2908,7 +2289,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2932,7 +2313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2956,7 +2337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2980,7 +2361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -3004,7 +2385,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -3028,7 +2409,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -3052,7 +2433,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -3076,7 +2457,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -3100,7 +2481,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -3124,7 +2505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -3148,7 +2529,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -3172,7 +2553,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -3196,7 +2577,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -3220,7 +2601,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -3244,7 +2625,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -3268,7 +2649,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -3292,7 +2673,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -3316,7 +2697,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -3341,7 +2722,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -3366,7 +2747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -3391,7 +2772,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -3416,7 +2797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -3441,7 +2822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -3466,7 +2847,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -3491,7 +2872,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -3516,7 +2897,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -3541,7 +2922,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -3566,7 +2947,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -3591,7 +2972,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -3616,7 +2997,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -3641,7 +3022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -3666,7 +3047,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -3691,7 +3072,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -3716,7 +3097,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -3741,7 +3122,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>174</v>
       </c>
@@ -3766,7 +3147,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -3791,7 +3172,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -3816,7 +3197,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -3841,7 +3222,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -3866,7 +3247,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -3891,7 +3272,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -3916,7 +3297,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -3941,7 +3322,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -3966,7 +3347,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -3991,7 +3372,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -4016,7 +3397,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -4041,7 +3422,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>198</v>
       </c>
@@ -4066,7 +3447,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -4091,7 +3472,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -4116,7 +3497,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -4141,7 +3522,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -4166,7 +3547,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -4191,7 +3572,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -4216,7 +3597,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>212</v>
       </c>
@@ -4241,7 +3622,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -4266,7 +3647,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>216</v>
       </c>
@@ -4291,7 +3672,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>218</v>
       </c>
@@ -4316,7 +3697,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>220</v>
       </c>
@@ -4341,7 +3722,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>222</v>
       </c>
@@ -4366,7 +3747,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -4391,7 +3772,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>226</v>
       </c>
@@ -4416,7 +3797,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>228</v>
       </c>
@@ -4441,7 +3822,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -4466,7 +3847,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -4491,7 +3872,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -4516,7 +3897,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -4541,7 +3922,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -4566,7 +3947,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -4591,7 +3972,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -4616,7 +3997,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -4641,7 +4022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -4666,7 +4047,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -4681,17 +4062,17 @@
         <v>248</v>
       </c>
       <c r="E121" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F121" s="1">
         <v>421</v>
       </c>
       <c r="G121" s="1">
         <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>249</v>
       </c>
@@ -4709,20 +4090,20 @@
         <v>32</v>
       </c>
       <c r="F122" s="1">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="G122" s="1">
         <f t="shared" si="2"/>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>251</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>827</v>
+        <v>1284</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -4731,19 +4112,18 @@
         <v>252</v>
       </c>
       <c r="E123" s="1">
-        <v>344</v>
+        <v>781</v>
       </c>
       <c r="F123" s="1">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="G123" s="1">
         <f t="shared" si="2"/>
-        <v>826</v>
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>